--- a/(HK242-MVT-L01-BTL) Nhóm 04.xlsx
+++ b/(HK242-MVT-L01-BTL) Nhóm 04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trực\Năm 3\Mạng viễn thông\BTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trực\Năm 3\Mạng viễn thông\BTL\OpenSIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2201E830-30E1-4763-B487-BF0E5FFBF1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E162AF4-CD6E-4F20-9630-D766AC248E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -115,28 +115,43 @@
     <t>Tô Anh Tuấn     Phan Lê Bình</t>
   </si>
   <si>
-    <t>Trịnh Công Bắc Phan Lê Bình</t>
-  </si>
-  <si>
-    <t>Tô Anh Tuấn     Trịnh Công Bắc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phan Lê Bình       Văn Đắc Phong Trực </t>
   </si>
   <si>
-    <t>Tô Anh Tuấn       Văn Đắc Phong Trực</t>
-  </si>
-  <si>
-    <t>Trịnh Công Bắc      Tô Anh Tuấn</t>
-  </si>
-  <si>
-    <t>Văn Đắc Phong Trực Trịnh Công Bắc</t>
-  </si>
-  <si>
-    <t>Phan Lê Bình         Tô Anh Tuấn</t>
-  </si>
-  <si>
     <t>100% 100%</t>
+  </si>
+  <si>
+    <t>80%   100%</t>
+  </si>
+  <si>
+    <t>Văn Đắc Phong Trực        Tô Anh Tuấn</t>
+  </si>
+  <si>
+    <t>100%   100%</t>
+  </si>
+  <si>
+    <t>Trịnh Công Bắc      Văn Đắc Phong Trực</t>
+  </si>
+  <si>
+    <t>90%     90%</t>
+  </si>
+  <si>
+    <t>Phan Lê Bình       Trịnh Công Bắc</t>
+  </si>
+  <si>
+    <t>Trịnh Công Bắc    Văn Đắc Phong Trực</t>
+  </si>
+  <si>
+    <t>90%    100%</t>
+  </si>
+  <si>
+    <t>Văn Đắc Phong Trực Trịnh Công Bắc      Tô Anh Tuấn          Phan Lê Bình</t>
+  </si>
+  <si>
+    <t>100%     0%     100%     0%</t>
+  </si>
+  <si>
+    <t>70%    100%</t>
   </si>
 </sst>
 </file>
@@ -154,18 +169,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -282,19 +293,38 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,50 +333,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,318 +574,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250FF65-E00E-4FB9-B69B-A00B3CC05A05}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" customWidth="1"/>
-    <col min="10" max="10" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="4.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="21" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -888,6 +916,7 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>